--- a/raw data/Precompilation_binningbysample.xlsx
+++ b/raw data/Precompilation_binningbysample.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="285" documentId="8_{DD284DC8-B621-4D25-B06E-E876F0573B00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B3E612F-4B59-4D0A-836C-736E7205520F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{B80690DF-B1E8-439E-97FE-2E4093E94BFE}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10848" windowHeight="8952" xr2:uid="{B80690DF-B1E8-439E-97FE-2E4093E94BFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Read.Me" sheetId="3" r:id="rId1"/>
@@ -576,7 +576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225A644E-BFBB-4D67-874A-C025C828BC21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -591,7 +591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE5451A-FA8C-4658-8C62-DD1E1D91C529}">
   <dimension ref="A1:O270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O33" sqref="O2:O33"/>
     </sheetView>
   </sheetViews>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G34" si="0">F3/F$35</f>
+        <f t="shared" ref="G3:G33" si="0">F3/F$35</f>
         <v>0</v>
       </c>
       <c r="I3" t="s">
@@ -5651,7 +5651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EE04E0-A551-4845-8ED0-F6D1A7543D2B}">
   <dimension ref="A1:P399"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G21" workbookViewId="0">
       <selection activeCell="P33" sqref="P2:P33"/>
     </sheetView>
   </sheetViews>
@@ -11587,7 +11587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C5AB09-BC59-4CE1-967F-DD74FE681B16}">
   <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="O33" sqref="O2:O33"/>
     </sheetView>
   </sheetViews>
@@ -13340,7 +13340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CC719-591E-410D-8F74-1544EDA8058F}">
   <dimension ref="A1:O517"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E18" workbookViewId="0">
       <selection activeCell="O33" sqref="O2:O33"/>
     </sheetView>
   </sheetViews>
@@ -22435,7 +22435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21BDC458-4D6F-4E1B-8A61-2F92F1018DBD}">
   <dimension ref="A1:O169"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O33"/>
     </sheetView>
   </sheetViews>
@@ -26100,7 +26100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBE2DDE-0A80-4324-A87D-FD36C072CF92}">
   <dimension ref="A1:O1062"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O33"/>
     </sheetView>
   </sheetViews>
